--- a/result/test_result.xlsx
+++ b/result/test_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,6 +383,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8501307839302805</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8410889468638837</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3421757522061743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
